--- a/cta策略/result/螺纹/CCI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/CCI_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>参数</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t>绩效数据</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -416,117 +440,117 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1246923785752829</v>
+        <v>0.07376177535710737</v>
       </c>
       <c r="D2">
-        <v>0.3163381695448192</v>
+        <v>0.1548950453620906</v>
       </c>
       <c r="E2">
-        <v>0.342508836447484</v>
+        <v>0.1408952642113418</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.06769038274017447</v>
+        <v>0.07829448726869837</v>
       </c>
       <c r="D3">
-        <v>0.1030051233319313</v>
+        <v>0.1757357795839674</v>
       </c>
       <c r="E3">
-        <v>0.1708906911571311</v>
+        <v>0.2063767753224747</v>
       </c>
       <c r="F3">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.07658390695434703</v>
+        <v>0.07460921460079972</v>
       </c>
       <c r="D4">
-        <v>0.1357961291980725</v>
+        <v>0.159243982324134</v>
       </c>
       <c r="E4">
-        <v>0.1408700974551865</v>
+        <v>0.1464832424361716</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1204147514020157</v>
+        <v>0.1003383104787414</v>
       </c>
       <c r="D5">
-        <v>0.2983343818824654</v>
+        <v>0.2777733328899619</v>
       </c>
       <c r="E5">
-        <v>0.2223457574393018</v>
+        <v>0.1977285582729242</v>
       </c>
       <c r="F5">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1284715334389812</v>
+        <v>0.1014574048076962</v>
       </c>
       <c r="D6">
-        <v>0.3283825720608498</v>
+        <v>0.2831298722790507</v>
       </c>
       <c r="E6">
-        <v>0.2646164431850751</v>
+        <v>0.2171402153909156</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.2078531601453761</v>
+        <v>0.1463273066809432</v>
       </c>
       <c r="D7">
-        <v>0.6242715669257698</v>
+        <v>0.4898571593278104</v>
       </c>
       <c r="E7">
-        <v>0.4332844753293599</v>
+        <v>0.3122847343167721</v>
       </c>
       <c r="F7">
         <v>0.75</v>
@@ -536,17 +560,17 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.2075167764133197</v>
+        <v>0.1444950471842403</v>
       </c>
       <c r="D8">
-        <v>0.6204206404549036</v>
+        <v>0.4819706449692929</v>
       </c>
       <c r="E8">
-        <v>0.525378813603804</v>
+        <v>0.3912217849753049</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -556,17 +580,17 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>60</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>-0.004152946885414899</v>
+        <v>0.01722073980890881</v>
       </c>
       <c r="D9">
-        <v>-0.1616700697531076</v>
+        <v>-0.1057562584218219</v>
       </c>
       <c r="E9">
-        <v>-0.006021434080638758</v>
+        <v>0.02662603074397648</v>
       </c>
       <c r="F9">
         <v>0.6</v>

--- a/cta策略/result/螺纹/CCI_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/CCI_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>参数</t>
   </si>
@@ -52,10 +52,31 @@
     <t>14</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +465,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.07376177535710737</v>
+        <v>0.04732189131659004</v>
       </c>
       <c r="D2">
-        <v>0.1548950453620906</v>
+        <v>0.03337931120687932</v>
       </c>
       <c r="E2">
-        <v>0.1408952642113418</v>
+        <v>0.08744359000132225</v>
       </c>
       <c r="F2">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,16 +485,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.07829448726869837</v>
+        <v>0.04557560091926738</v>
       </c>
       <c r="D3">
-        <v>0.1757357795839674</v>
+        <v>0.0253856088591309</v>
       </c>
       <c r="E3">
-        <v>0.2063767753224747</v>
+        <v>0.1161717111463949</v>
       </c>
       <c r="F3">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,16 +505,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.07460921460079972</v>
+        <v>0.05343579914369379</v>
       </c>
       <c r="D4">
-        <v>0.159243982324134</v>
+        <v>0.06152111447207695</v>
       </c>
       <c r="E4">
-        <v>0.1464832424361716</v>
+        <v>0.1007826311817131</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,16 +525,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.1003383104787414</v>
+        <v>0.08151515689876709</v>
       </c>
       <c r="D5">
-        <v>0.2777733328899619</v>
+        <v>0.1903036134440541</v>
       </c>
       <c r="E5">
-        <v>0.1977285582729242</v>
+        <v>0.1542890805494429</v>
       </c>
       <c r="F5">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,13 +545,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1014574048076962</v>
+        <v>0.08430711920964984</v>
       </c>
       <c r="D6">
-        <v>0.2831298722790507</v>
+        <v>0.2033699534846496</v>
       </c>
       <c r="E6">
-        <v>0.2171402153909156</v>
+        <v>0.1759187465724174</v>
       </c>
       <c r="F6">
         <v>0.75</v>
@@ -544,13 +565,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1463273066809432</v>
+        <v>0.1316355418491215</v>
       </c>
       <c r="D7">
-        <v>0.4898571593278104</v>
+        <v>0.421052387308659</v>
       </c>
       <c r="E7">
-        <v>0.3122847343167721</v>
+        <v>0.2751837000574697</v>
       </c>
       <c r="F7">
         <v>0.75</v>
@@ -564,16 +585,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.1444950471842403</v>
+        <v>0.1526298112566919</v>
       </c>
       <c r="D8">
-        <v>0.4819706449692929</v>
+        <v>0.5188986429105858</v>
       </c>
       <c r="E8">
-        <v>0.3912217849753049</v>
+        <v>0.3041098835856385</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,16 +605,156 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.01722073980890881</v>
+        <v>0.1342144531686957</v>
       </c>
       <c r="D9">
-        <v>-0.1057562584218219</v>
+        <v>0.4337689583396683</v>
       </c>
       <c r="E9">
-        <v>0.02662603074397648</v>
+        <v>0.3563412452378559</v>
       </c>
       <c r="F9">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.1516166688867937</v>
+      </c>
+      <c r="D10">
+        <v>0.5153949609752219</v>
+      </c>
+      <c r="E10">
+        <v>0.4092797564335556</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.1028676988447272</v>
+      </c>
+      <c r="D11">
+        <v>0.2906640855699382</v>
+      </c>
+      <c r="E11">
+        <v>0.2616262969692694</v>
+      </c>
+      <c r="F11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.03874368097004566</v>
+      </c>
+      <c r="D12">
+        <v>-0.005823008210435147</v>
+      </c>
+      <c r="E12">
+        <v>0.06878139556284631</v>
+      </c>
+      <c r="F12">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.01224106733643127</v>
+      </c>
+      <c r="D13">
+        <v>-0.1287757615816097</v>
+      </c>
+      <c r="E13">
+        <v>0.01876225726495549</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.2156618371540169</v>
+      </c>
+      <c r="D14">
+        <v>0.8250725783929695</v>
+      </c>
+      <c r="E14">
+        <v>0.7318397655168752</v>
+      </c>
+      <c r="F14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.1910522856085248</v>
+      </c>
+      <c r="D15">
+        <v>0.7112571320506264</v>
+      </c>
+      <c r="E15">
+        <v>0.6483282427078304</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.207834478843909</v>
+      </c>
+      <c r="D16">
+        <v>0.7952929222950245</v>
+      </c>
+      <c r="E16">
+        <v>0.7052779400873969</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
